--- a/Shivoog Cost structure 2.2 .xlsx
+++ b/Shivoog Cost structure 2.2 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="412" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="412"/>
   </bookViews>
   <sheets>
     <sheet name="18 months" sheetId="1" r:id="rId1"/>
@@ -702,14 +702,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -758,22 +759,24 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="4"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1078,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="J25" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,10 +1109,10 @@
       <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="54"/>
       <c r="H2" s="6" t="s">
         <v>44</v>
       </c>
@@ -2777,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2805,10 +2808,10 @@
       <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -3005,7 +3008,7 @@
         <f>'18 months'!V11/51.32</f>
         <v>0</v>
       </c>
-      <c r="W11" s="50">
+      <c r="W11" s="49">
         <f>'18 months'!W11/51.32</f>
         <v>0</v>
       </c>
@@ -3093,7 +3096,7 @@
         <f>'18 months'!V12/51.32</f>
         <v>0</v>
       </c>
-      <c r="W12" s="50">
+      <c r="W12" s="49">
         <f>'18 months'!W12/51.32</f>
         <v>0</v>
       </c>
@@ -3153,27 +3156,27 @@
         <f>'18 months'!O13/51.32</f>
         <v>701.48090413094314</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="48">
         <f>'18 months'!P13/51.32</f>
         <v>701.48090413094314</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="Q13" s="48">
         <f>'18 months'!Q13/51.32</f>
         <v>935.30787217459078</v>
       </c>
-      <c r="R13" s="49">
+      <c r="R13" s="48">
         <f>'18 months'!R13/51.32</f>
         <v>935.30787217459078</v>
       </c>
-      <c r="S13" s="49">
+      <c r="S13" s="48">
         <f>'18 months'!S13/51.32</f>
         <v>935.30787217459078</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="48">
         <f>'18 months'!T13/51.32</f>
         <v>935.30787217459078</v>
       </c>
-      <c r="U13" s="49">
+      <c r="U13" s="48">
         <f>'18 months'!U13/51.32</f>
         <v>935.30787217459078</v>
       </c>
@@ -3181,7 +3184,7 @@
         <f>'18 months'!V13/51.32</f>
         <v>0</v>
       </c>
-      <c r="W13" s="50">
+      <c r="W13" s="49">
         <f>'18 months'!W13/51.32</f>
         <v>13795.791114575215</v>
       </c>
@@ -3241,27 +3244,27 @@
         <f>'18 months'!O14/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="48">
         <f>'18 months'!P14/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="48">
         <f>'18 months'!Q14/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="R14" s="49">
+      <c r="R14" s="48">
         <f>'18 months'!R14/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="S14" s="49">
+      <c r="S14" s="48">
         <f>'18 months'!S14/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="48">
         <f>'18 months'!T14/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="U14" s="49">
+      <c r="U14" s="48">
         <f>'18 months'!U14/51.32</f>
         <v>350.74045206547157</v>
       </c>
@@ -3269,7 +3272,7 @@
         <f>'18 months'!V14/51.32</f>
         <v>0</v>
       </c>
-      <c r="W14" s="50">
+      <c r="W14" s="49">
         <f>'18 months'!W14/51.32</f>
         <v>6313.3281371784879</v>
       </c>
@@ -3329,27 +3332,27 @@
         <f>'18 months'!O15/51.32</f>
         <v>233.8269680436477</v>
       </c>
-      <c r="P15" s="49">
+      <c r="P15" s="48">
         <f>'18 months'!P15/51.32</f>
         <v>233.8269680436477</v>
       </c>
-      <c r="Q15" s="49">
+      <c r="Q15" s="48">
         <f>'18 months'!Q15/51.32</f>
         <v>233.8269680436477</v>
       </c>
-      <c r="R15" s="49">
+      <c r="R15" s="48">
         <f>'18 months'!R15/51.32</f>
         <v>233.8269680436477</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="48">
         <f>'18 months'!S15/51.32</f>
         <v>233.8269680436477</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="48">
         <f>'18 months'!T15/51.32</f>
         <v>233.8269680436477</v>
       </c>
-      <c r="U15" s="49">
+      <c r="U15" s="48">
         <f>'18 months'!U15/51.32</f>
         <v>233.8269680436477</v>
       </c>
@@ -3357,7 +3360,7 @@
         <f>'18 months'!V15/51.32</f>
         <v>0</v>
       </c>
-      <c r="W15" s="50">
+      <c r="W15" s="49">
         <f>'18 months'!W15/51.32</f>
         <v>2805.9236165237726</v>
       </c>
@@ -3417,27 +3420,27 @@
         <f>'18 months'!O16/51.32</f>
         <v>165.62743569758379</v>
       </c>
-      <c r="P16" s="49">
+      <c r="P16" s="48">
         <f>'18 months'!P16/51.32</f>
         <v>331.25487139516758</v>
       </c>
-      <c r="Q16" s="49">
+      <c r="Q16" s="48">
         <f>'18 months'!Q16/51.32</f>
         <v>331.25487139516758</v>
       </c>
-      <c r="R16" s="49">
+      <c r="R16" s="48">
         <f>'18 months'!R16/51.32</f>
         <v>331.25487139516758</v>
       </c>
-      <c r="S16" s="49">
+      <c r="S16" s="48">
         <f>'18 months'!S16/51.32</f>
         <v>331.25487139516758</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="48">
         <f>'18 months'!T16/51.32</f>
         <v>331.25487139516758</v>
       </c>
-      <c r="U16" s="49">
+      <c r="U16" s="48">
         <f>'18 months'!U16/51.32</f>
         <v>331.25487139516758</v>
       </c>
@@ -3445,7 +3448,7 @@
         <f>'18 months'!V16/51.32</f>
         <v>0</v>
       </c>
-      <c r="W16" s="50">
+      <c r="W16" s="49">
         <f>'18 months'!W16/51.32</f>
         <v>2318.7840997661729</v>
       </c>
@@ -3505,27 +3508,27 @@
         <f>'18 months'!O17/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="P17" s="49">
+      <c r="P17" s="48">
         <f>'18 months'!P17/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q17" s="48">
         <f>'18 months'!Q17/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="R17" s="49">
+      <c r="R17" s="48">
         <f>'18 months'!R17/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="48">
         <f>'18 months'!S17/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="T17" s="49">
+      <c r="T17" s="48">
         <f>'18 months'!T17/51.32</f>
         <v>350.74045206547157</v>
       </c>
-      <c r="U17" s="49">
+      <c r="U17" s="48">
         <f>'18 months'!U17/51.32</f>
         <v>350.74045206547157</v>
       </c>
@@ -3533,7 +3536,7 @@
         <f>'18 months'!V17/51.32</f>
         <v>0</v>
       </c>
-      <c r="W17" s="50">
+      <c r="W17" s="49">
         <f>'18 months'!W17/51.32</f>
         <v>4208.8854247856589</v>
       </c>
@@ -3593,27 +3596,27 @@
         <f>'18 months'!O18/51.32</f>
         <v>389.71161340607949</v>
       </c>
-      <c r="P18" s="49">
+      <c r="P18" s="48">
         <f>'18 months'!P18/51.32</f>
         <v>389.71161340607949</v>
       </c>
-      <c r="Q18" s="49">
+      <c r="Q18" s="48">
         <f>'18 months'!Q18/51.32</f>
         <v>389.71161340607949</v>
       </c>
-      <c r="R18" s="49">
+      <c r="R18" s="48">
         <f>'18 months'!R18/51.32</f>
         <v>389.71161340607949</v>
       </c>
-      <c r="S18" s="49">
+      <c r="S18" s="48">
         <f>'18 months'!S18/51.32</f>
         <v>389.71161340607949</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="48">
         <f>'18 months'!T18/51.32</f>
         <v>389.71161340607949</v>
       </c>
-      <c r="U18" s="49">
+      <c r="U18" s="48">
         <f>'18 months'!U18/51.32</f>
         <v>389.71161340607949</v>
       </c>
@@ -3621,7 +3624,7 @@
         <f>'18 months'!V18/51.32</f>
         <v>0</v>
       </c>
-      <c r="W18" s="50">
+      <c r="W18" s="49">
         <f>'18 months'!W18/51.32</f>
         <v>4676.5393608729537</v>
       </c>
@@ -3707,7 +3710,7 @@
         <f>'18 months'!V19/51.32</f>
         <v>0</v>
       </c>
-      <c r="W19" s="50">
+      <c r="W19" s="49">
         <f>'18 months'!W19/51.32</f>
         <v>6819.9532346063916</v>
       </c>
@@ -3795,7 +3798,7 @@
         <f>'18 months'!V20/51.32</f>
         <v>0</v>
       </c>
-      <c r="W20" s="50">
+      <c r="W20" s="49">
         <f>'18 months'!W20/51.32</f>
         <v>3215.1208106001559</v>
       </c>
@@ -3883,7 +3886,7 @@
         <f>'18 months'!V21/51.32</f>
         <v>0</v>
       </c>
-      <c r="W21" s="50">
+      <c r="W21" s="49">
         <f>'18 months'!W21/51.32</f>
         <v>2922.8371005455961</v>
       </c>
@@ -3969,7 +3972,7 @@
         <f>'18 months'!V22/51.32</f>
         <v>0</v>
       </c>
-      <c r="W22" s="50">
+      <c r="W22" s="49">
         <f>'18 months'!W22/51.32</f>
         <v>8963.3671083398276</v>
       </c>
@@ -4056,7 +4059,7 @@
         <f>'18 months'!V23/51.32</f>
         <v>0</v>
       </c>
-      <c r="W23" s="50">
+      <c r="W23" s="49">
         <f>'18 months'!W23/51.32</f>
         <v>0</v>
       </c>
@@ -4144,7 +4147,7 @@
         <f>'18 months'!V24/51.32</f>
         <v>0</v>
       </c>
-      <c r="W24" s="50">
+      <c r="W24" s="49">
         <f>'18 months'!W24/51.32</f>
         <v>1617.3031956352299</v>
       </c>
@@ -4232,7 +4235,7 @@
         <f>'18 months'!V25/51.32</f>
         <v>0</v>
       </c>
-      <c r="W25" s="50">
+      <c r="W25" s="49">
         <f>'18 months'!W25/51.32</f>
         <v>1169.1348402182384</v>
       </c>
@@ -4320,7 +4323,7 @@
         <f>'18 months'!V26/51.32</f>
         <v>0</v>
       </c>
-      <c r="W26" s="50">
+      <c r="W26" s="49">
         <f>'18 months'!W26/51.32</f>
         <v>2338.2696804364768</v>
       </c>
@@ -4406,7 +4409,7 @@
         <f>'18 months'!V27/51.32</f>
         <v>0</v>
       </c>
-      <c r="W27" s="50">
+      <c r="W27" s="49">
         <f>'18 months'!W27/51.32</f>
         <v>1402.9618082618863</v>
       </c>
@@ -4492,7 +4495,7 @@
         <f>'18 months'!V28/51.32</f>
         <v>0</v>
       </c>
-      <c r="W28" s="50">
+      <c r="W28" s="49">
         <f>'18 months'!W28/51.32</f>
         <v>11106.780982073265</v>
       </c>
@@ -4578,7 +4581,7 @@
         <f>'18 months'!V29/51.32</f>
         <v>0</v>
       </c>
-      <c r="W29" s="50">
+      <c r="W29" s="49">
         <f>'18 months'!W29/51.32</f>
         <v>3604.8324240062352</v>
       </c>
@@ -4664,7 +4667,7 @@
         <f>'18 months'!V30/51.32</f>
         <v>0</v>
       </c>
-      <c r="W30" s="50">
+      <c r="W30" s="49">
         <f>'18 months'!W30/51.32</f>
         <v>3507.4045206547153</v>
       </c>
@@ -4750,7 +4753,7 @@
         <f>'18 months'!V31/51.32</f>
         <v>0</v>
       </c>
-      <c r="W31" s="50">
+      <c r="W31" s="49">
         <f>'18 months'!W31/51.32</f>
         <v>18511.301636788776</v>
       </c>
@@ -4836,7 +4839,7 @@
         <f>'18 months'!V32/51.32</f>
         <v>0</v>
       </c>
-      <c r="W32" s="50">
+      <c r="W32" s="49">
         <f>'18 months'!W32/51.32</f>
         <v>1948.5580670303975</v>
       </c>
@@ -4922,7 +4925,7 @@
         <f>'18 months'!V33/51.32</f>
         <v>0</v>
       </c>
-      <c r="W33" s="50">
+      <c r="W33" s="49">
         <f>'18 months'!W33/51.32</f>
         <v>2435.6975837879968</v>
       </c>
@@ -5008,7 +5011,7 @@
         <f>'18 months'!V34/51.32</f>
         <v>0</v>
       </c>
-      <c r="W34" s="50">
+      <c r="W34" s="49">
         <f>'18 months'!W34/51.32</f>
         <v>5455.9625876851132</v>
       </c>
@@ -5094,7 +5097,7 @@
         <f>'18 months'!V35/51.32</f>
         <v>0</v>
       </c>
-      <c r="W35" s="50">
+      <c r="W35" s="49">
         <f>'18 months'!W35/51.32</f>
         <v>0</v>
       </c>
@@ -5182,7 +5185,7 @@
         <f>'18 months'!V36/51.32</f>
         <v>0</v>
       </c>
-      <c r="W36" s="50">
+      <c r="W36" s="49">
         <f>'18 months'!W36/51.32</f>
         <v>25720.966484801247</v>
       </c>
@@ -5266,7 +5269,7 @@
         <f>'18 months'!V37/51.32</f>
         <v>0</v>
       </c>
-      <c r="W37" s="50">
+      <c r="W37" s="49">
         <f>'18 months'!W37/51.32</f>
         <v>0</v>
       </c>
@@ -5352,7 +5355,7 @@
         <f>'18 months'!V38/51.32</f>
         <v>0</v>
       </c>
-      <c r="W38" s="50">
+      <c r="W38" s="49">
         <f>'18 months'!W38/51.32</f>
         <v>779.42322681215899</v>
       </c>
@@ -5438,7 +5441,7 @@
         <f>'18 months'!V39/51.32</f>
         <v>0</v>
       </c>
-      <c r="W39" s="50">
+      <c r="W39" s="49">
         <f>'18 months'!W39/51.32</f>
         <v>779.42322681215899</v>
       </c>
@@ -5524,7 +5527,7 @@
         <f>'18 months'!V40/51.32</f>
         <v>0</v>
       </c>
-      <c r="W40" s="51">
+      <c r="W40" s="50">
         <f>'18 months'!W40/51.32</f>
         <v>1558.846453624318</v>
       </c>
@@ -5576,39 +5579,39 @@
         <f>'18 months'!N41/51.32</f>
         <v>7531.176929072486</v>
       </c>
-      <c r="O41" s="52">
+      <c r="O41" s="51">
         <f>'18 months'!O41/51.32</f>
         <v>8310.6001558846456</v>
       </c>
-      <c r="P41" s="53">
+      <c r="P41" s="52">
         <f>'18 months'!P41/51.32</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="53">
+      <c r="Q41" s="52">
         <f>'18 months'!Q41/51.32</f>
         <v>0</v>
       </c>
-      <c r="R41" s="53">
+      <c r="R41" s="52">
         <f>'18 months'!R41/51.32</f>
         <v>0</v>
       </c>
-      <c r="S41" s="53">
+      <c r="S41" s="52">
         <f>'18 months'!S41/51.32</f>
         <v>0</v>
       </c>
-      <c r="T41" s="53">
+      <c r="T41" s="52">
         <f>'18 months'!T41/51.32</f>
         <v>0</v>
       </c>
-      <c r="U41" s="53">
+      <c r="U41" s="52">
         <f>'18 months'!U41/51.32</f>
         <v>0</v>
       </c>
-      <c r="V41" s="53">
+      <c r="V41" s="52">
         <f>'18 months'!V41/51.32</f>
         <v>0</v>
       </c>
-      <c r="W41" s="54">
+      <c r="W41" s="53">
         <f>'18 months'!W41/51.32</f>
         <v>137977.39672642245</v>
       </c>
@@ -5634,8 +5637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5697,12 +5700,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="8">
-        <f>'18 months AUD'!Q41</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
+        <f>'18 months AUD'!W41</f>
+        <v>137977.39672642245</v>
+      </c>
+      <c r="C2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -5722,45 +5723,42 @@
         <f>'Sales Numbers'!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="42">
-        <f>'Sales Numbers'!C3</f>
-        <v>0</v>
-      </c>
+      <c r="C3" s="42"/>
       <c r="D3" s="42">
         <f>'Sales Numbers'!D3</f>
         <v>0</v>
       </c>
       <c r="E3" s="42">
         <f>'Sales Numbers'!E3</f>
-        <v>1266600</v>
+        <v>1461399.9999999998</v>
       </c>
       <c r="F3" s="42">
         <f>'Sales Numbers'!F3</f>
-        <v>6333000</v>
+        <v>7306999.9999999991</v>
       </c>
       <c r="G3" s="42">
         <f>'Sales Numbers'!G3</f>
-        <v>25332000</v>
+        <v>29227999.999999996</v>
       </c>
       <c r="H3" s="42">
         <f>'Sales Numbers'!H3</f>
-        <v>94995000</v>
+        <v>109604999.99999999</v>
       </c>
       <c r="I3" s="42">
         <f>'Sales Numbers'!I3</f>
-        <v>189990000</v>
+        <v>219209999.99999997</v>
       </c>
       <c r="J3" s="42">
         <f>'Sales Numbers'!J3</f>
-        <v>253320000</v>
+        <v>292280000</v>
       </c>
       <c r="K3" s="42">
         <f>'Sales Numbers'!K3</f>
-        <v>316650000</v>
+        <v>365349999.99999994</v>
       </c>
       <c r="L3" s="42">
         <f>'Sales Numbers'!L3</f>
-        <v>379980000</v>
+        <v>438419999.99999994</v>
       </c>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5881,35 +5879,35 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
-        <v>371819.09586905688</v>
+        <v>566619.09586905665</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
-        <v>1965019.0958690569</v>
+        <v>2939019.0958690559</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="1"/>
-        <v>7939519.0958690569</v>
+        <v>11835519.095869053</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="1"/>
-        <v>29846019.095869064</v>
+        <v>44456019.095869049</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="1"/>
-        <v>59718519.095869064</v>
+        <v>88938519.095869035</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="1"/>
-        <v>79633519.095869064</v>
+        <v>118593519.09586906</v>
       </c>
       <c r="K6" s="11">
         <f t="shared" si="1"/>
-        <v>99548519.095869064</v>
+        <v>148248519.095869</v>
       </c>
       <c r="L6" s="11">
         <f t="shared" si="1"/>
-        <v>119463519.09586906</v>
+        <v>177903519.095869</v>
       </c>
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
@@ -5930,35 +5928,35 @@
       </c>
       <c r="E7" s="13">
         <f t="shared" ref="E7" si="2">E6*E16/100</f>
-        <v>74363.819173811382</v>
+        <v>113323.81917381134</v>
       </c>
       <c r="F7" s="47">
         <f t="shared" ref="F7" si="3">F6*E16/100</f>
-        <v>393003.81917381135</v>
+        <v>587803.81917381124</v>
       </c>
       <c r="G7" s="47">
         <f t="shared" ref="G7" si="4">G6*E16/100</f>
-        <v>1587903.8191738115</v>
+        <v>2367103.8191738105</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ref="H7" si="5">H6*H16/100</f>
-        <v>5969203.8191738129</v>
+        <v>8891203.819173811</v>
       </c>
       <c r="I7" s="47">
         <f t="shared" ref="I7" si="6">I6*H16/100</f>
-        <v>11943703.819173813</v>
+        <v>17787703.819173809</v>
       </c>
       <c r="J7" s="47">
         <f t="shared" ref="J7" si="7">J6*H16/100</f>
-        <v>15926703.819173813</v>
+        <v>23718703.819173813</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7" si="8">K6*K16/100</f>
-        <v>19909703.819173813</v>
+        <v>29649703.819173802</v>
       </c>
       <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L6*K16/100</f>
-        <v>23892703.819173813</v>
+        <v>35580703.819173805</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
@@ -5981,35 +5979,35 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="10"/>
-        <v>297455.27669524553</v>
+        <v>453295.27669524529</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="10"/>
-        <v>1572015.2766952454</v>
+        <v>2351215.2766952449</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="10"/>
-        <v>6351615.2766952459</v>
+        <v>9468415.2766952422</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="10"/>
-        <v>23876815.276695251</v>
+        <v>35564815.276695237</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="10"/>
-        <v>47774815.276695251</v>
+        <v>71150815.276695222</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" si="10"/>
-        <v>63706815.276695251</v>
+        <v>94874815.276695251</v>
       </c>
       <c r="K8" s="11">
         <f t="shared" si="10"/>
-        <v>79638815.276695251</v>
+        <v>118598815.27669521</v>
       </c>
       <c r="L8" s="11">
         <f t="shared" si="10"/>
-        <v>95570815.276695251</v>
+        <v>142322815.27669519</v>
       </c>
       <c r="M8" s="40"/>
       <c r="N8" s="40"/>
@@ -6050,35 +6048,35 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="11"/>
-        <v>297455.27669524553</v>
+        <v>453295.27669524529</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="11"/>
-        <v>1572015.2766952454</v>
+        <v>2351215.2766952449</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="11"/>
-        <v>6351615.2766952459</v>
+        <v>9468415.2766952422</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="11"/>
-        <v>23876815.276695251</v>
+        <v>35564815.276695237</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="11"/>
-        <v>47774815.276695251</v>
+        <v>71150815.276695222</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="11"/>
-        <v>63706815.276695251</v>
+        <v>94874815.276695251</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" si="11"/>
-        <v>79638815.276695251</v>
+        <v>118598815.27669521</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="11"/>
-        <v>95570815.276695251</v>
+        <v>142322815.27669519</v>
       </c>
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
@@ -6090,47 +6088,47 @@
       </c>
       <c r="B12" s="9">
         <f>B2+B10</f>
-        <v>0</v>
+        <v>137977.39672642245</v>
       </c>
       <c r="C12" s="9">
         <f>B12+C10+C2</f>
-        <v>-30962.587685113016</v>
+        <v>107014.80904130943</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="12">C12+D10+D2</f>
-        <v>-57443.491816056121</v>
+        <v>80533.904910366327</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="12"/>
-        <v>240011.78487918939</v>
+        <v>533829.18160561158</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="12"/>
-        <v>1812027.0615744349</v>
+        <v>2885044.4583008564</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="12"/>
-        <v>8163642.3382696807</v>
+        <v>12353459.734996099</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="12"/>
-        <v>32040457.614964932</v>
+        <v>47918275.011691332</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="12"/>
-        <v>79815272.891660184</v>
+        <v>119069090.28838655</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="12"/>
-        <v>143522088.16835544</v>
+        <v>213943905.5650818</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="12"/>
-        <v>223160903.44505069</v>
+        <v>332542720.84177703</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="12"/>
-        <v>318731718.72174597</v>
+        <v>474865536.11847222</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -6225,7 +6223,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6263,16 +6261,16 @@
         <v>56</v>
       </c>
       <c r="C3" s="22">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="22">
         <f>C3*70</f>
-        <v>4200</v>
+        <v>4340</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22">
         <f>D3*0.019</f>
-        <v>79.8</v>
+        <v>82.46</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
@@ -6393,12 +6391,12 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16">
         <f>SUM(D3:D9)</f>
-        <v>4570</v>
+        <v>4710</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16">
         <f>SUM(F3:F9)</f>
-        <v>86.83</v>
+        <v>89.49</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -6567,7 +6565,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6677,36 +6675,36 @@
         <v>0</v>
       </c>
       <c r="E3" s="45">
-        <f>E2*126.66</f>
-        <v>1266600</v>
+        <f>E2*146.14</f>
+        <v>1461399.9999999998</v>
       </c>
       <c r="F3" s="45">
-        <f t="shared" ref="F3:L3" si="1">F2*126.66</f>
-        <v>6333000</v>
+        <f t="shared" ref="F3:L3" si="1">F2*146.14</f>
+        <v>7306999.9999999991</v>
       </c>
       <c r="G3" s="45">
         <f t="shared" si="1"/>
-        <v>25332000</v>
+        <v>29227999.999999996</v>
       </c>
       <c r="H3" s="45">
         <f t="shared" si="1"/>
-        <v>94995000</v>
+        <v>109604999.99999999</v>
       </c>
       <c r="I3" s="45">
         <f t="shared" si="1"/>
-        <v>189990000</v>
+        <v>219209999.99999997</v>
       </c>
       <c r="J3" s="45">
         <f t="shared" si="1"/>
-        <v>253320000</v>
+        <v>292280000</v>
       </c>
       <c r="K3" s="45">
         <f t="shared" si="1"/>
-        <v>316650000</v>
+        <v>365349999.99999994</v>
       </c>
       <c r="L3" s="45">
         <f t="shared" si="1"/>
-        <v>379980000</v>
+        <v>438419999.99999994</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6715,24 +6713,45 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="F4" s="55">
+        <f>(F2-E2)/E2</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="55">
+        <f t="shared" ref="G4:L4" si="2">(G2-F2)/F2</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="55">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="I4" s="55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="55">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K4" s="55">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="55">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="1">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="C5" s="46">
         <f>B5/51.32</f>
-        <v>126.65627435697584</v>
+        <v>146.1418550272798</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
